--- a/Linux/DeviceDrivers/Document(important)/17.V4L2框架.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/17.V4L2框架.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" tabRatio="709" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12690" tabRatio="709"/>
   </bookViews>
   <sheets>
     <sheet name="v4l2_hc" sheetId="13" r:id="rId1"/>
@@ -52,7 +52,18 @@
     <t>include/media/v4l2-dev.h</t>
   </si>
   <si>
-    <t>struct v4l2_file_operations {</t>
+    <r>
+      <t>struct v4l2_file_operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    struct module *owner;</t>
@@ -121,13 +132,73 @@
     <t xml:space="preserve">    /* sysfs */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct device dev;        /* v4l device */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct cdev *cdev;        /* character device */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    struct v4l2_device *v4l2_dev;    /* v4l2_device parent */</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> dev;        /* v4l device */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct cdev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *cdev;        /* character device */</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *v4l2_dev;    /* v4l2_device parent */</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* Only set parent if that can't be deduced from v4l2_dev */</t>
@@ -139,7 +210,27 @@
     <t xml:space="preserve">    /* Control handler associated with this device node. May be NULL. */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct v4l2_ctrl_handler *ctrl_handler;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_ctrl_handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *ctrl_handler;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* vb2_queue associated with this device node. May be NULL. */</t>
@@ -151,7 +242,27 @@
     <t xml:space="preserve">    /* Priority state. If NULL, then v4l2_dev-&gt;prio will be used. */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct v4l2_prio_state *prio;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_prio_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *prio;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* device info */</t>
@@ -217,7 +328,27 @@
     <t xml:space="preserve">    /* ioctl callbacks */</t>
   </si>
   <si>
-    <t xml:space="preserve">    const struct v4l2_ioctl_ops *ioctl_ops;</t>
+    <r>
+      <t xml:space="preserve">    const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_ioctl_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *ioctl_ops;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    DECLARE_BITMAP(valid_ioctls, BASE_VIDIOC_PRIVATE);</t>
@@ -244,7 +375,18 @@
     <t>include/media/v4l2-device.h</t>
   </si>
   <si>
-    <t>struct v4l2_device {</t>
+    <r>
+      <t>struct v4l2_device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* dev-&gt;driver_data points to this struct.</t>
@@ -265,7 +407,27 @@
     <t xml:space="preserve">    /* used to keep track of the registered subdevs */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct list_head subdevs;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct list_head subdevs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* lock this struct; can be used by the driver as well if this</t>
@@ -298,7 +460,27 @@
     <t xml:space="preserve">    /* Device's priority state */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct v4l2_prio_state prio;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_prio_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> prio;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* BKL replacement mutex. Temporary solution only. */</t>
@@ -331,7 +513,18 @@
     <t>include/media/v4l2-subdev.h</t>
   </si>
   <si>
-    <t>struct v4l2_subdev_ops {</t>
+    <r>
+      <t>struct v4l2_subdev_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    const struct v4l2_subdev_core_ops    *core;</t>
@@ -358,7 +551,18 @@
     <t xml:space="preserve">    const struct v4l2_subdev_pad_ops    *pad;</t>
   </si>
   <si>
-    <t>struct v4l2_subdev {</t>
+    <r>
+      <t>struct v4l2_subdev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    struct list_head list;</t>
@@ -370,7 +574,27 @@
     <t xml:space="preserve">    u32 flags;</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct v4l2_device *v4l2_dev;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *v4l2_dev;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    const struct v4l2_subdev_ops *ops;</t>
@@ -379,7 +603,27 @@
     <t xml:space="preserve">    /* Never call these internal ops from within a driver! */</t>
   </si>
   <si>
-    <t xml:space="preserve">    const struct v4l2_subdev_internal_ops *internal_ops;</t>
+    <r>
+      <t xml:space="preserve">    const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct v4l2_subdev_internal_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *internal_ops;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* The control handler of this subdev. May be NULL. */</t>
@@ -409,7 +653,27 @@
     <t xml:space="preserve">    /* subdev device node */</t>
   </si>
   <si>
-    <t xml:space="preserve">    struct video_device *devnode;</t>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struct video_device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *devnode;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* pointer to the physical device, if any */</t>
@@ -445,7 +709,18 @@
     <t>include/media/v4l2-ioctl.h</t>
   </si>
   <si>
-    <t>struct v4l2_ioctl_ops {</t>
+    <r>
+      <t>struct v4l2_ioctl_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    /* VIDIOC_QUERYCAP handler */</t>
@@ -1024,7 +1299,18 @@
     <t>include/media/v4l2-ctrls.h</t>
   </si>
   <si>
-    <t>struct v4l2_ctrl_handler {</t>
+    <r>
+      <t>struct v4l2_ctrl_handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">    struct mutex _lock;</t>
@@ -1061,8 +1347,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1085,6 +1371,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1092,15 +1399,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,44 +1460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,19 +1474,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,14 +1487,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1213,30 +1505,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,6 +1531,132 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,49 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,37 +1686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,55 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,18 +1711,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,17 +1792,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,7 +1846,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,26 +1866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,156 +1884,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,7 +2050,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2104,8 +2383,8 @@
   <sheetPr/>
   <dimension ref="B1:E438"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="12" outlineLevelCol="4"/>
@@ -4217,7 +4496,7 @@
   <sheetPr/>
   <dimension ref="B2:BZ3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="BY17" sqref="BY17"/>
     </sheetView>
   </sheetViews>
